--- a/biology/Botanique/Angraecum_pungens/Angraecum_pungens.xlsx
+++ b/biology/Botanique/Angraecum_pungens/Angraecum_pungens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Angraecum pungens est une espèce d'orchidées d'Afrique appartenant à la famille des Orchidaceae. On l'appelle aussi Pectinariella pungens[2]. Les forêts humides et les forêts denses tropicales constituent l'habitat favorable à leur croissance. Cette plante est vulnérable selon la liste rouge de l'UICN à cause de la déforestation qui reste le principal facteur de perte de son habitation. On le trouve au Cameroun, en Guinée équatoriale, au Nigeria et en République démocratique du Congo[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angraecum pungens est une espèce d'orchidées d'Afrique appartenant à la famille des Orchidaceae. On l'appelle aussi Pectinariella pungens. Les forêts humides et les forêts denses tropicales constituent l'habitat favorable à leur croissance. Cette plante est vulnérable selon la liste rouge de l'UICN à cause de la déforestation qui reste le principal facteur de perte de son habitation. On le trouve au Cameroun, en Guinée équatoriale, au Nigeria et en République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante sert de plante d'intérieur et d'ornement botanique grâce à ses fleurs.
 </t>
@@ -542,12 +556,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angraecum pungens a plusieurs synonymes : 
-Angraecopsis pungens (Schltr.) R.Rice[1]
-Angraecum arthrophyllum (Kraenzl.) Schltr.[1]
-Mystacidium arthrophyllum Kraenzl.[1]</t>
+Angraecopsis pungens (Schltr.) R.Rice
+Angraecum arthrophyllum (Kraenzl.) Schltr.
+Mystacidium arthrophyllum Kraenzl.</t>
         </is>
       </c>
     </row>
